--- a/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
+++ b/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\Geolocalizacion\P-Geo\src\test\resources\dataDriven\dataMobile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724717AC-FEAA-40C1-9350-0BB79E78A958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB65731-4CAE-4D4C-9B15-78B3A157DE5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD91699F-4E5F-4825-B8EF-EB5849196733}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="23">
   <si>
     <t>Placa</t>
   </si>
@@ -54,37 +54,37 @@
     <t>-12.0965159, -77.0278309</t>
   </si>
   <si>
-    <t>ABA250</t>
-  </si>
-  <si>
     <t>-12.1709419, -77.0009815</t>
-  </si>
-  <si>
-    <t>ABA251</t>
   </si>
   <si>
     <t>-12.1110620, -77.0315913</t>
   </si>
   <si>
-    <t>ABA252</t>
+    <t>ABA300</t>
   </si>
   <si>
-    <t>ABA253</t>
+    <t>ABA301</t>
   </si>
   <si>
-    <t>ABA254</t>
+    <t>ABA302</t>
   </si>
   <si>
-    <t>ABA255</t>
+    <t>ABA303</t>
   </si>
   <si>
-    <t>ABA256</t>
+    <t>ABA304</t>
   </si>
   <si>
-    <t>ABA257</t>
+    <t>ABA305</t>
   </si>
   <si>
-    <t>ABA258</t>
+    <t>ABA306</t>
+  </si>
+  <si>
+    <t>ABA307</t>
+  </si>
+  <si>
+    <t>ABA308</t>
   </si>
   <si>
     <t>PROCURADOR AUTO1</t>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>PROCURADOR AUTO4</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO5</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:D624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,7 +489,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -497,10 +500,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -511,7 +514,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -539,13 +542,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -567,7 +570,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>

--- a/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
+++ b/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB65731-4CAE-4D4C-9B15-78B3A157DE5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04734C9-8A28-4F09-B46A-0AFCACFC5B3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD91699F-4E5F-4825-B8EF-EB5849196733}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="6">
   <si>
     <t>Placa</t>
   </si>
@@ -50,63 +50,11 @@
   <si>
     <t xml:space="preserve">a- </t>
   </si>
-  <si>
-    <t>-12.0965159, -77.0278309</t>
-  </si>
-  <si>
-    <t>-12.1709419, -77.0009815</t>
-  </si>
-  <si>
-    <t>-12.1110620, -77.0315913</t>
-  </si>
-  <si>
-    <t>ABA300</t>
-  </si>
-  <si>
-    <t>ABA301</t>
-  </si>
-  <si>
-    <t>ABA302</t>
-  </si>
-  <si>
-    <t>ABA303</t>
-  </si>
-  <si>
-    <t>ABA304</t>
-  </si>
-  <si>
-    <t>ABA305</t>
-  </si>
-  <si>
-    <t>ABA306</t>
-  </si>
-  <si>
-    <t>ABA307</t>
-  </si>
-  <si>
-    <t>ABA308</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO1</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO2</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO3</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO4</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO5</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,13 +409,13 @@
   <dimension ref="A1:D624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -486,13 +434,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -500,13 +448,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -514,13 +462,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -528,13 +476,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -542,13 +490,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -556,10 +504,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -570,10 +518,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -584,10 +532,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -598,10 +546,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>

--- a/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
+++ b/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04734C9-8A28-4F09-B46A-0AFCACFC5B3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EC5643-2E08-4155-9D5E-865B2300F444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD91699F-4E5F-4825-B8EF-EB5849196733}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="10">
   <si>
     <t>Placa</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t xml:space="preserve">a- </t>
+  </si>
+  <si>
+    <t>-12.0965159, -77.0278309</t>
+  </si>
+  <si>
+    <t>ABA338</t>
+  </si>
+  <si>
+    <t>-12.1691665, -77.0001753</t>
+  </si>
+  <si>
+    <t>ABA339</t>
   </si>
 </sst>
 </file>
@@ -409,7 +421,7 @@
   <dimension ref="A1:D624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,10 +446,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -448,10 +460,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>

--- a/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
+++ b/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EC5643-2E08-4155-9D5E-865B2300F444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EEBB59-7F9D-46E3-B2D2-30D2840A4673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD91699F-4E5F-4825-B8EF-EB5849196733}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="6">
   <si>
     <t>Placa</t>
   </si>
@@ -49,18 +49,6 @@
   </si>
   <si>
     <t xml:space="preserve">a- </t>
-  </si>
-  <si>
-    <t>-12.0965159, -77.0278309</t>
-  </si>
-  <si>
-    <t>ABA338</t>
-  </si>
-  <si>
-    <t>-12.1691665, -77.0001753</t>
-  </si>
-  <si>
-    <t>ABA339</t>
   </si>
 </sst>
 </file>
@@ -421,7 +409,7 @@
   <dimension ref="A1:D624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,10 +434,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -460,10 +448,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>

--- a/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
+++ b/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EEBB59-7F9D-46E3-B2D2-30D2840A4673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C5EDF-5153-4082-A2A3-E674C415BC11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD91699F-4E5F-4825-B8EF-EB5849196733}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
+++ b/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataMobile\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="10">
   <si>
     <t>Placa</t>
   </si>
@@ -50,11 +50,24 @@
   <si>
     <t xml:space="preserve">a- </t>
   </si>
+  <si>
+    <t>-12.1691665, -77.0001753</t>
+  </si>
+  <si>
+    <t>ABA354</t>
+  </si>
+  <si>
+    <t>-12.1110620, -77.0315913</t>
+  </si>
+  <si>
+    <t>ABA355</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,8 +427,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -434,10 +447,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -448,10 +461,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>

--- a/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
+++ b/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C5EDF-5153-4082-A2A3-E674C415BC11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72E415E-D827-4DC3-A2C4-0A0E75B9C7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD91699F-4E5F-4825-B8EF-EB5849196733}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="12">
   <si>
     <t>Placa</t>
   </si>
@@ -51,16 +51,22 @@
     <t xml:space="preserve">a- </t>
   </si>
   <si>
-    <t>-12.1691665, -77.0001753</t>
-  </si>
-  <si>
-    <t>ABA354</t>
-  </si>
-  <si>
     <t>-12.1110620, -77.0315913</t>
   </si>
   <si>
-    <t>ABA355</t>
+    <t>ABA364</t>
+  </si>
+  <si>
+    <t>-12.0965159, -77.0278309</t>
+  </si>
+  <si>
+    <t>ABA365</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO2</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO3</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
   <dimension ref="A1:D624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +459,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -467,7 +473,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>

--- a/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
+++ b/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72E415E-D827-4DC3-A2C4-0A0E75B9C7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C02F6EB-DCFB-4582-8235-A61D2105A628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD91699F-4E5F-4825-B8EF-EB5849196733}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="6">
   <si>
     <t>Placa</t>
   </si>
@@ -50,30 +50,11 @@
   <si>
     <t xml:space="preserve">a- </t>
   </si>
-  <si>
-    <t>-12.1110620, -77.0315913</t>
-  </si>
-  <si>
-    <t>ABA364</t>
-  </si>
-  <si>
-    <t>-12.0965159, -77.0278309</t>
-  </si>
-  <si>
-    <t>ABA365</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO2</t>
-  </si>
-  <si>
-    <t>PROCURADOR AUTO3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,8 +414,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -453,13 +434,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -467,13 +448,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>

--- a/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
+++ b/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C02F6EB-DCFB-4582-8235-A61D2105A628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D710E8-CE05-4D15-ADCF-BB2A9D626D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD91699F-4E5F-4825-B8EF-EB5849196733}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="28">
   <si>
     <t>Placa</t>
   </si>
@@ -50,11 +50,78 @@
   <si>
     <t xml:space="preserve">a- </t>
   </si>
+  <si>
+    <t>-12.0965159, -77.0278309</t>
+  </si>
+  <si>
+    <t>-12.1691665, -77.0001753</t>
+  </si>
+  <si>
+    <t>-12.1110620, -77.0315913</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO1</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO2</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO3</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO4</t>
+  </si>
+  <si>
+    <t>ABA395</t>
+  </si>
+  <si>
+    <t>ABA396</t>
+  </si>
+  <si>
+    <t>ABA397</t>
+  </si>
+  <si>
+    <t>ABA398</t>
+  </si>
+  <si>
+    <t>ABA399</t>
+  </si>
+  <si>
+    <t>ABA400</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO5</t>
+  </si>
+  <si>
+    <t>VED776</t>
+  </si>
+  <si>
+    <t>-12.1692327, -77.0002525</t>
+  </si>
+  <si>
+    <t>IZT459</t>
+  </si>
+  <si>
+    <t>TXM101</t>
+  </si>
+  <si>
+    <t>BRZ456</t>
+  </si>
+  <si>
+    <t>YIM481</t>
+  </si>
+  <si>
+    <t>JLG579</t>
+  </si>
+  <si>
+    <t>Seleccionar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,13 +476,13 @@
   <dimension ref="A1:D624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D25"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -434,13 +501,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -448,13 +515,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -462,13 +529,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -476,13 +543,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -490,13 +557,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -504,13 +571,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
@@ -518,13 +585,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -532,13 +599,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -546,13 +613,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>

--- a/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
+++ b/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="31">
   <si>
     <t>Placa</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Seleccionar</t>
+  </si>
+  <si>
+    <t>ABA417</t>
+  </si>
+  <si>
+    <t>ABA418</t>
+  </si>
+  <si>
+    <t>ABA419</t>
   </si>
 </sst>
 </file>
@@ -504,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -515,10 +524,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -532,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>

--- a/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
+++ b/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="33">
   <si>
     <t>Placa</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>ABA419</t>
+  </si>
+  <si>
+    <t>ABA424</t>
+  </si>
+  <si>
+    <t>ABA425</t>
   </si>
 </sst>
 </file>
@@ -513,7 +519,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -527,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>

--- a/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
+++ b/src/test/resources/dataDriven/dataMobile/DataForMobile.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="39">
   <si>
     <t>Placa</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>ABA425</t>
+  </si>
+  <si>
+    <t>ABA431</t>
+  </si>
+  <si>
+    <t>ABA430</t>
+  </si>
+  <si>
+    <t>ABA432</t>
+  </si>
+  <si>
+    <t>ABA434</t>
+  </si>
+  <si>
+    <t>ABA435</t>
+  </si>
+  <si>
+    <t>ABA436</t>
   </si>
 </sst>
 </file>
@@ -519,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -533,7 +551,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
